--- a/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
+++ b/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01672BE5-4797-408F-B5DD-E325141AF94D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8230" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="int" sheetId="6" r:id="rId2"/>
+    <sheet name="long" sheetId="7" r:id="rId3"/>
+    <sheet name="short" sheetId="8" r:id="rId4"/>
+    <sheet name="float" sheetId="9" r:id="rId5"/>
+    <sheet name="double" sheetId="10" r:id="rId6"/>
+    <sheet name="bool" sheetId="11" r:id="rId7"/>
+    <sheet name="char" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>####</t>
     <phoneticPr fontId="1"/>
@@ -307,6 +315,341 @@
   </si>
   <si>
     <t>extract#~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>props#key?listToProp=key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ints[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>props#~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ints[1]</t>
+  </si>
+  <si>
+    <t>ints[2]</t>
+  </si>
+  <si>
+    <t>ints[3]</t>
+  </si>
+  <si>
+    <t>ints[4]</t>
+  </si>
+  <si>
+    <t>ints[5]</t>
+  </si>
+  <si>
+    <t>ints[6]</t>
+  </si>
+  <si>
+    <t>props#value?listToProp=value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>long1</t>
+  </si>
+  <si>
+    <t>long2</t>
+  </si>
+  <si>
+    <t>long3</t>
+  </si>
+  <si>
+    <t>long4</t>
+  </si>
+  <si>
+    <t>longs[0]</t>
+  </si>
+  <si>
+    <t>longs[1]</t>
+  </si>
+  <si>
+    <t>longs[2]</t>
+  </si>
+  <si>
+    <t>longs[3]</t>
+  </si>
+  <si>
+    <t>longs[4]</t>
+  </si>
+  <si>
+    <t>longs[5]</t>
+  </si>
+  <si>
+    <t>longs[6]</t>
+  </si>
+  <si>
+    <t>long5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9223372036854775807</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longs[7]</t>
+  </si>
+  <si>
+    <t>short1</t>
+  </si>
+  <si>
+    <t>short2</t>
+  </si>
+  <si>
+    <t>short3</t>
+  </si>
+  <si>
+    <t>short4</t>
+  </si>
+  <si>
+    <t>short5</t>
+  </si>
+  <si>
+    <t>shorts[0]</t>
+  </si>
+  <si>
+    <t>shorts[1]</t>
+  </si>
+  <si>
+    <t>shorts[2]</t>
+  </si>
+  <si>
+    <t>shorts[3]</t>
+  </si>
+  <si>
+    <t>shorts[4]</t>
+  </si>
+  <si>
+    <t>shorts[5]</t>
+  </si>
+  <si>
+    <t>shorts[6]</t>
+  </si>
+  <si>
+    <t>shorts[7]</t>
+  </si>
+  <si>
+    <t>float1</t>
+  </si>
+  <si>
+    <t>float2</t>
+  </si>
+  <si>
+    <t>float3</t>
+  </si>
+  <si>
+    <t>float4</t>
+  </si>
+  <si>
+    <t>float5</t>
+  </si>
+  <si>
+    <t>floats[0]</t>
+  </si>
+  <si>
+    <t>floats[1]</t>
+  </si>
+  <si>
+    <t>floats[2]</t>
+  </si>
+  <si>
+    <t>floats[3]</t>
+  </si>
+  <si>
+    <t>floats[4]</t>
+  </si>
+  <si>
+    <t>floats[5]</t>
+  </si>
+  <si>
+    <t>floats[6]</t>
+  </si>
+  <si>
+    <t>floats[7]</t>
+  </si>
+  <si>
+    <t>double1</t>
+  </si>
+  <si>
+    <t>double2</t>
+  </si>
+  <si>
+    <t>double3</t>
+  </si>
+  <si>
+    <t>double4</t>
+  </si>
+  <si>
+    <t>double5</t>
+  </si>
+  <si>
+    <t>doubles[0]</t>
+  </si>
+  <si>
+    <t>doubles[1]</t>
+  </si>
+  <si>
+    <t>doubles[2]</t>
+  </si>
+  <si>
+    <t>doubles[3]</t>
+  </si>
+  <si>
+    <t>doubles[4]</t>
+  </si>
+  <si>
+    <t>doubles[5]</t>
+  </si>
+  <si>
+    <t>doubles[6]</t>
+  </si>
+  <si>
+    <t>doubles[7]</t>
+  </si>
+  <si>
+    <t>bool1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>falSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bools[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bools[1]</t>
+  </si>
+  <si>
+    <t>bools[2]</t>
+  </si>
+  <si>
+    <t>bools[3]</t>
+  </si>
+  <si>
+    <t>bools[4]</t>
+  </si>
+  <si>
+    <t>bools[5]</t>
+  </si>
+  <si>
+    <t>bools[6]</t>
+  </si>
+  <si>
+    <t>bool5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool_error1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool_error2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character1</t>
+  </si>
+  <si>
+    <t>character2</t>
+  </si>
+  <si>
+    <t>character3</t>
+  </si>
+  <si>
+    <t>character4</t>
+  </si>
+  <si>
+    <t>characters[0]</t>
+  </si>
+  <si>
+    <t>characters[1]</t>
+  </si>
+  <si>
+    <t>characters[2]</t>
+  </si>
+  <si>
+    <t>characters[3]</t>
+  </si>
+  <si>
+    <t>characters[4]</t>
+  </si>
+  <si>
+    <t>characters[5]</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcde111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,11 +696,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A66886-8370-47E9-9AD6-6A526655F5D9}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1417,4 +1763,1051 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57882E8F-0D14-4C43-AC14-C5F870161CEA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7647D-D14A-4D95-B1ED-99FEC201BE25}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D2BB03-2200-49DD-A534-D17054F37120}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6747E0D-53E3-46E0-8B8D-DCAEC3F0FA01}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2875F5DF-86A2-40D8-AF87-CE4814C15BC1}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FE039-8EA6-4C11-ADC4-1E7E796269EA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649CDD1E-3590-4813-8A22-CFBB3F051641}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
+++ b/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01672BE5-4797-408F-B5DD-E325141AF94D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D298E98-CBB4-4A11-AB6E-6005C9C5DB75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8230" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="0" windowWidth="19200" windowHeight="8232" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -21,18 +21,25 @@
     <sheet name="double" sheetId="10" r:id="rId6"/>
     <sheet name="bool" sheetId="11" r:id="rId7"/>
     <sheet name="char" sheetId="12" r:id="rId8"/>
+    <sheet name="of" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="185">
   <si>
     <t>####</t>
     <phoneticPr fontId="1"/>
@@ -650,6 +657,54 @@
   </si>
   <si>
     <t>character6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#ccc[0].ccc1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#ccc[0].ccc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#bbb1.bbb21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#bbb1.bbb22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#ccc[1].ccc1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#ccc[1].ccc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testOf#~</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1026,14 +1081,14 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="5" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="19.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1074,7 +1129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1200,7 +1255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +1291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +1309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1525,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1543,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1632,7 +1687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1740,7 +1795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1773,15 +1828,15 @@
       <selection activeCell="C22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1847,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1803,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>73</v>
       </c>
@@ -1811,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>74</v>
       </c>
@@ -1819,7 +1874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -1827,7 +1882,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>77</v>
       </c>
@@ -1835,12 +1890,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>76</v>
       </c>
@@ -1848,7 +1903,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>80</v>
       </c>
@@ -1856,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>82</v>
       </c>
@@ -1864,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -1880,7 +1935,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -1888,12 +1943,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>87</v>
       </c>
@@ -1915,15 +1970,15 @@
       <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1989,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1945,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>90</v>
       </c>
@@ -1953,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>91</v>
       </c>
@@ -1961,7 +2016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>92</v>
       </c>
@@ -1969,7 +2024,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>100</v>
       </c>
@@ -1977,7 +2032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -1985,12 +2040,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -1998,7 +2053,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>93</v>
       </c>
@@ -2006,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>94</v>
       </c>
@@ -2014,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>95</v>
       </c>
@@ -2022,7 +2077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>96</v>
       </c>
@@ -2030,7 +2085,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>97</v>
       </c>
@@ -2038,7 +2093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>98</v>
       </c>
@@ -2046,12 +2101,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>102</v>
       </c>
@@ -2074,15 +2129,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2104,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>104</v>
       </c>
@@ -2112,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>105</v>
       </c>
@@ -2120,7 +2175,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>106</v>
       </c>
@@ -2128,7 +2183,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>107</v>
       </c>
@@ -2136,7 +2191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -2144,12 +2199,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -2157,7 +2212,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>108</v>
       </c>
@@ -2165,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>109</v>
       </c>
@@ -2173,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>110</v>
       </c>
@@ -2181,7 +2236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>111</v>
       </c>
@@ -2189,7 +2244,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>112</v>
       </c>
@@ -2197,7 +2252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>113</v>
       </c>
@@ -2205,12 +2260,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>115</v>
       </c>
@@ -2232,15 +2287,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2262,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>117</v>
       </c>
@@ -2270,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>118</v>
       </c>
@@ -2278,7 +2333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>119</v>
       </c>
@@ -2286,7 +2341,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>120</v>
       </c>
@@ -2294,7 +2349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -2302,12 +2357,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -2315,7 +2370,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>121</v>
       </c>
@@ -2323,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>122</v>
       </c>
@@ -2331,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>123</v>
       </c>
@@ -2339,7 +2394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>124</v>
       </c>
@@ -2347,7 +2402,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>125</v>
       </c>
@@ -2355,7 +2410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>126</v>
       </c>
@@ -2363,12 +2418,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>128</v>
       </c>
@@ -2390,15 +2445,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2420,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>130</v>
       </c>
@@ -2428,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>131</v>
       </c>
@@ -2436,7 +2491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>132</v>
       </c>
@@ -2444,7 +2499,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -2452,7 +2507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -2460,12 +2515,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -2473,7 +2528,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>134</v>
       </c>
@@ -2481,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>135</v>
       </c>
@@ -2489,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>136</v>
       </c>
@@ -2497,7 +2552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -2505,7 +2560,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>138</v>
       </c>
@@ -2513,7 +2568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>139</v>
       </c>
@@ -2521,12 +2576,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -2548,15 +2603,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2578,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>143</v>
       </c>
@@ -2586,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -2594,7 +2649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>146</v>
       </c>
@@ -2602,7 +2657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -2610,12 +2665,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>156</v>
       </c>
@@ -2623,7 +2678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>149</v>
       </c>
@@ -2631,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>150</v>
       </c>
@@ -2639,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>151</v>
       </c>
@@ -2647,7 +2702,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>152</v>
       </c>
@@ -2655,7 +2710,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>153</v>
       </c>
@@ -2663,12 +2718,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>155</v>
       </c>
@@ -2687,19 +2742,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649CDD1E-3590-4813-8A22-CFBB3F051641}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2721,7 +2776,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -2729,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>161</v>
       </c>
@@ -2737,7 +2792,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -2745,13 +2800,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>171</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>172</v>
       </c>
@@ -2759,7 +2814,7 @@
         <v>-1234</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -2767,7 +2822,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -2775,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -2783,7 +2838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>166</v>
       </c>
@@ -2791,13 +2846,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>168</v>
       </c>
@@ -2810,4 +2865,6134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8249E309-217F-4620-B34D-3059B53B61C0}">
+  <dimension ref="A1:S130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J97" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(C3&lt;&gt;"",""""&amp;C3&amp;"""","null")</f>
+        <v>"aaa"</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:Q17" si="0">IF(D3&lt;&gt;"",""""&amp;D3&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S3" t="str">
+        <f>"assertTestOf(testBeans.get("&amp;B3&amp;"), "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", "&amp;N3&amp;", "&amp;O3&amp;", "&amp;P3&amp;", "&amp;Q3&amp;");"</f>
+        <v>assertTestOf(testBeans.get(0), "aaa", "bbb", "bbb", "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K17" si="1">IF(C4&lt;&gt;"",""""&amp;C4&amp;"""","null")</f>
+        <v>"aaa"</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S17" si="2">"assertTestOf(testBeans.get("&amp;B4&amp;"), "&amp;K4&amp;", "&amp;L4&amp;", "&amp;M4&amp;", "&amp;N4&amp;", "&amp;O4&amp;", "&amp;P4&amp;", "&amp;Q4&amp;");"</f>
+        <v>assertTestOf(testBeans.get(1), "aaa", "bbb", "bbb", "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(2), "aaa", "bbb", "bbb", "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(3), "aaa", "bbb", "bbb", "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(4), "aaa", "bbb", "bbb", "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(5), "aaa", "bbb", "bbb", "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(6), "aaa", "bbb", "bbb", "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(7), "aaa", "bbb", "bbb", "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(8), "aaa", "bbb", "bbb", null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(9), "aaa", "bbb", "bbb", null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(10), "aaa", "bbb", "bbb", null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(11), "aaa", "bbb", "bbb", null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(12), "aaa", "bbb", "bbb", null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(13), "aaa", "bbb", "bbb", null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>assertTestOf(testBeans.get(14), "aaa", "bbb", "bbb", null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ref="K18" si="3">IF(C18&lt;&gt;"",""""&amp;C18&amp;"""","null")</f>
+        <v>"aaa"</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18" si="4">IF(D18&lt;&gt;"",""""&amp;D18&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" ref="M18" si="5">IF(E18&lt;&gt;"",""""&amp;E18&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" ref="N18" si="6">IF(F18&lt;&gt;"",""""&amp;F18&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ref="O18" si="7">IF(G18&lt;&gt;"",""""&amp;G18&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18" si="8">IF(H18&lt;&gt;"",""""&amp;H18&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18" si="9">IF(I18&lt;&gt;"",""""&amp;I18&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" ref="S18" si="10">"assertTestOf(testBeans.get("&amp;B18&amp;"), "&amp;K18&amp;", "&amp;L18&amp;", "&amp;M18&amp;", "&amp;N18&amp;", "&amp;O18&amp;", "&amp;P18&amp;", "&amp;Q18&amp;");"</f>
+        <v>assertTestOf(testBeans.get(15), "aaa", "bbb", "bbb", null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K34" si="11">IF(C19&lt;&gt;"",""""&amp;C19&amp;"""","null")</f>
+        <v>"aaa"</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L34" si="12">IF(D19&lt;&gt;"",""""&amp;D19&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ref="M19:M34" si="13">IF(E19&lt;&gt;"",""""&amp;E19&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" ref="N19:N34" si="14">IF(F19&lt;&gt;"",""""&amp;F19&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ref="O19:O34" si="15">IF(G19&lt;&gt;"",""""&amp;G19&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ref="P19:P34" si="16">IF(H19&lt;&gt;"",""""&amp;H19&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ref="Q19:Q34" si="17">IF(I19&lt;&gt;"",""""&amp;I19&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" ref="S19:S34" si="18">"assertTestOf(testBeans.get("&amp;B19&amp;"), "&amp;K19&amp;", "&amp;L19&amp;", "&amp;M19&amp;", "&amp;N19&amp;", "&amp;O19&amp;", "&amp;P19&amp;", "&amp;Q19&amp;");"</f>
+        <v>assertTestOf(testBeans.get(16), "aaa", "bbb", null, "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(17), "aaa", "bbb", null, "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(18), "aaa", "bbb", null, "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(19), "aaa", "bbb", null, "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(20), "aaa", "bbb", null, "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(21), "aaa", "bbb", null, "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(22), "aaa", "bbb", null, "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="14"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(23), "aaa", "bbb", null, "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(24), "aaa", "bbb", null, null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(25), "aaa", "bbb", null, null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(26), "aaa", "bbb", null, null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="15"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(27), "aaa", "bbb", null, null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(28), "aaa", "bbb", null, null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="16"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(29), "aaa", "bbb", null, null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="17"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(30), "aaa", "bbb", null, null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="11"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="12"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="13"/>
+        <v>null</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="14"/>
+        <v>null</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="15"/>
+        <v>null</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="16"/>
+        <v>null</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="17"/>
+        <v>null</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="18"/>
+        <v>assertTestOf(testBeans.get(31), "aaa", "bbb", null, null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" ref="K35:K50" si="19">IF(C35&lt;&gt;"",""""&amp;C35&amp;"""","null")</f>
+        <v>"aaa"</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ref="L35:L50" si="20">IF(D35&lt;&gt;"",""""&amp;D35&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35:M50" si="21">IF(E35&lt;&gt;"",""""&amp;E35&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" ref="N35:N50" si="22">IF(F35&lt;&gt;"",""""&amp;F35&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" ref="O35:O50" si="23">IF(G35&lt;&gt;"",""""&amp;G35&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ref="P35:P50" si="24">IF(H35&lt;&gt;"",""""&amp;H35&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ref="Q35:Q50" si="25">IF(I35&lt;&gt;"",""""&amp;I35&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" ref="S35:S50" si="26">"assertTestOf(testBeans.get("&amp;B35&amp;"), "&amp;K35&amp;", "&amp;L35&amp;", "&amp;M35&amp;", "&amp;N35&amp;", "&amp;O35&amp;", "&amp;P35&amp;", "&amp;Q35&amp;");"</f>
+        <v>assertTestOf(testBeans.get(32), "aaa", null, "bbb", "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(33), "aaa", null, "bbb", "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(34), "aaa", null, "bbb", "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(35), "aaa", null, "bbb", "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(36), "aaa", null, "bbb", "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(37), "aaa", null, "bbb", "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(38), "aaa", null, "bbb", "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="22"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(39), "aaa", null, "bbb", "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(40), "aaa", null, "bbb", null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(41), "aaa", null, "bbb", null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(42), "aaa", null, "bbb", null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="23"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(43), "aaa", null, "bbb", null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" t="s">
+        <v>178</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(44), "aaa", null, "bbb", null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" t="s">
+        <v>177</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="24"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(45), "aaa", null, "bbb", null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="25"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(46), "aaa", null, "bbb", null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="19"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="20"/>
+        <v>null</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="21"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="22"/>
+        <v>null</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="23"/>
+        <v>null</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="24"/>
+        <v>null</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="25"/>
+        <v>null</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="26"/>
+        <v>assertTestOf(testBeans.get(47), "aaa", null, "bbb", null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" ref="K51:K66" si="27">IF(C51&lt;&gt;"",""""&amp;C51&amp;"""","null")</f>
+        <v>"aaa"</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" ref="L51:L66" si="28">IF(D51&lt;&gt;"",""""&amp;D51&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ref="M51:M66" si="29">IF(E51&lt;&gt;"",""""&amp;E51&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" ref="N51:N66" si="30">IF(F51&lt;&gt;"",""""&amp;F51&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" ref="O51:O66" si="31">IF(G51&lt;&gt;"",""""&amp;G51&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" ref="P51:P66" si="32">IF(H51&lt;&gt;"",""""&amp;H51&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51:Q66" si="33">IF(I51&lt;&gt;"",""""&amp;I51&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" ref="S51:S66" si="34">"assertTestOf(testBeans.get("&amp;B51&amp;"), "&amp;K51&amp;", "&amp;L51&amp;", "&amp;M51&amp;", "&amp;N51&amp;", "&amp;O51&amp;", "&amp;P51&amp;", "&amp;Q51&amp;");"</f>
+        <v>assertTestOf(testBeans.get(48), "aaa", null, null, "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" t="s">
+        <v>177</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(49), "aaa", null, null, "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(50), "aaa", null, null, "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" t="s">
+        <v>178</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(51), "aaa", null, null, "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(52), "aaa", null, null, "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H56" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(53), "aaa", null, null, "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>177</v>
+      </c>
+      <c r="I57" t="s">
+        <v>178</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(54), "aaa", null, null, "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="30"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(55), "aaa", null, null, "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I59" t="s">
+        <v>178</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(56), "aaa", null, null, null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" t="s">
+        <v>177</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(57), "aaa", null, null, null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" t="s">
+        <v>178</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(58), "aaa", null, null, null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>178</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="31"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(59), "aaa", null, null, null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s">
+        <v>178</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(60), "aaa", null, null, null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s">
+        <v>177</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="32"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(61), "aaa", null, null, null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="33"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(62), "aaa", null, null, null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="27"/>
+        <v>"aaa"</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="28"/>
+        <v>null</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="29"/>
+        <v>null</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="30"/>
+        <v>null</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="31"/>
+        <v>null</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="33"/>
+        <v>null</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="34"/>
+        <v>assertTestOf(testBeans.get(63), "aaa", null, null, null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" t="s">
+        <v>177</v>
+      </c>
+      <c r="G67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" t="s">
+        <v>177</v>
+      </c>
+      <c r="I67" t="s">
+        <v>178</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" si="35">IF(C67&lt;&gt;"",""""&amp;C67&amp;"""","null")</f>
+        <v>null</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L130" si="36">IF(D67&lt;&gt;"",""""&amp;D67&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M130" si="37">IF(E67&lt;&gt;"",""""&amp;E67&amp;"""","null")</f>
+        <v>"bbb"</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N130" si="38">IF(F67&lt;&gt;"",""""&amp;F67&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O130" si="39">IF(G67&lt;&gt;"",""""&amp;G67&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P130" si="40">IF(H67&lt;&gt;"",""""&amp;H67&amp;"""","null")</f>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q130" si="41">IF(I67&lt;&gt;"",""""&amp;I67&amp;"""","null")</f>
+        <v>"ddd"</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:S130" si="42">"assertTestOf(testBeans.get("&amp;B67&amp;"), "&amp;K67&amp;", "&amp;L67&amp;", "&amp;M67&amp;", "&amp;N67&amp;", "&amp;O67&amp;", "&amp;P67&amp;", "&amp;Q67&amp;");"</f>
+        <v>assertTestOf(testBeans.get(64), null, "bbb", "bbb", "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" t="s">
+        <v>177</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(65), null, "bbb", "bbb", "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" t="s">
+        <v>178</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(66), null, "bbb", "bbb", "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(67), null, "bbb", "bbb", "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" t="s">
+        <v>177</v>
+      </c>
+      <c r="I71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(68), null, "bbb", "bbb", "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" t="s">
+        <v>177</v>
+      </c>
+      <c r="H72" t="s">
+        <v>177</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(69), null, "bbb", "bbb", "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" t="s">
+        <v>177</v>
+      </c>
+      <c r="I73" t="s">
+        <v>178</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(70), null, "bbb", "bbb", "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" t="s">
+        <v>177</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(71), null, "bbb", "bbb", "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75" t="s">
+        <v>178</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(72), null, "bbb", "bbb", null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" t="s">
+        <v>177</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(73), null, "bbb", "bbb", null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" t="s">
+        <v>178</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(74), null, "bbb", "bbb", null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(75), null, "bbb", "bbb", null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H79" t="s">
+        <v>177</v>
+      </c>
+      <c r="I79" t="s">
+        <v>178</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(76), null, "bbb", "bbb", null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>176</v>
+      </c>
+      <c r="H80" t="s">
+        <v>177</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(77), null, "bbb", "bbb", null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81" t="s">
+        <v>178</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(78), null, "bbb", "bbb", null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" t="s">
+        <v>176</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(79), null, "bbb", "bbb", null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" t="s">
+        <v>177</v>
+      </c>
+      <c r="G83" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" t="s">
+        <v>177</v>
+      </c>
+      <c r="I83" t="s">
+        <v>178</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(80), null, "bbb", null, "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" t="s">
+        <v>177</v>
+      </c>
+      <c r="G84" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" t="s">
+        <v>177</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(81), null, "bbb", null, "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" t="s">
+        <v>178</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(82), null, "bbb", null, "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86" t="s">
+        <v>178</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(83), null, "bbb", null, "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" t="s">
+        <v>177</v>
+      </c>
+      <c r="I87" t="s">
+        <v>178</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(84), null, "bbb", null, "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" t="s">
+        <v>177</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(85), null, "bbb", null, "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
+        <v>177</v>
+      </c>
+      <c r="I89" t="s">
+        <v>178</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(86), null, "bbb", null, "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
+        <v>177</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(87), null, "bbb", null, "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>176</v>
+      </c>
+      <c r="G91" t="s">
+        <v>178</v>
+      </c>
+      <c r="H91" t="s">
+        <v>177</v>
+      </c>
+      <c r="I91" t="s">
+        <v>178</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(88), null, "bbb", null, null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+      <c r="G92" t="s">
+        <v>178</v>
+      </c>
+      <c r="H92" t="s">
+        <v>177</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(89), null, "bbb", null, null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+      <c r="G93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I93" t="s">
+        <v>178</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S93" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(90), null, "bbb", null, null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" t="s">
+        <v>178</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S94" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(91), null, "bbb", null, null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+      <c r="H95" t="s">
+        <v>177</v>
+      </c>
+      <c r="I95" t="s">
+        <v>178</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S95" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(92), null, "bbb", null, null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="D96" t="s">
+        <v>176</v>
+      </c>
+      <c r="H96" t="s">
+        <v>177</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S96" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(93), null, "bbb", null, null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>176</v>
+      </c>
+      <c r="I97" t="s">
+        <v>178</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S97" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(94), null, "bbb", null, null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="D98" t="s">
+        <v>176</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="36"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S98" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(95), null, "bbb", null, null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="E99" t="s">
+        <v>176</v>
+      </c>
+      <c r="F99" t="s">
+        <v>177</v>
+      </c>
+      <c r="G99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H99" t="s">
+        <v>177</v>
+      </c>
+      <c r="I99" t="s">
+        <v>178</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S99" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(96), null, null, "bbb", "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="E100" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H100" t="s">
+        <v>177</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S100" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(97), null, null, "bbb", "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="E101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" t="s">
+        <v>177</v>
+      </c>
+      <c r="G101" t="s">
+        <v>178</v>
+      </c>
+      <c r="I101" t="s">
+        <v>178</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S101" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(98), null, null, "bbb", "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="E102" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" t="s">
+        <v>177</v>
+      </c>
+      <c r="G102" t="s">
+        <v>178</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S102" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(99), null, null, "bbb", "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="E103" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" t="s">
+        <v>177</v>
+      </c>
+      <c r="H103" t="s">
+        <v>177</v>
+      </c>
+      <c r="I103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S103" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(100), null, null, "bbb", "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="E104" t="s">
+        <v>176</v>
+      </c>
+      <c r="F104" t="s">
+        <v>177</v>
+      </c>
+      <c r="H104" t="s">
+        <v>177</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S104" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(101), null, null, "bbb", "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="E105" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" t="s">
+        <v>177</v>
+      </c>
+      <c r="I105" t="s">
+        <v>178</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S105" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(102), null, null, "bbb", "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="E106" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" t="s">
+        <v>177</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S106" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(103), null, null, "bbb", "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="E107" t="s">
+        <v>176</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107" t="s">
+        <v>177</v>
+      </c>
+      <c r="I107" t="s">
+        <v>178</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S107" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(104), null, null, "bbb", null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>105</v>
+      </c>
+      <c r="E108" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H108" t="s">
+        <v>177</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S108" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(105), null, null, "bbb", null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="E109" t="s">
+        <v>176</v>
+      </c>
+      <c r="G109" t="s">
+        <v>178</v>
+      </c>
+      <c r="I109" t="s">
+        <v>178</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S109" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(106), null, null, "bbb", null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="E110" t="s">
+        <v>176</v>
+      </c>
+      <c r="G110" t="s">
+        <v>178</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S110" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(107), null, null, "bbb", null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>108</v>
+      </c>
+      <c r="E111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H111" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" t="s">
+        <v>178</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S111" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(108), null, null, "bbb", null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>109</v>
+      </c>
+      <c r="E112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H112" t="s">
+        <v>177</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O112" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S112" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(109), null, null, "bbb", null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>110</v>
+      </c>
+      <c r="E113" t="s">
+        <v>176</v>
+      </c>
+      <c r="I113" t="s">
+        <v>178</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S113" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(110), null, null, "bbb", null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>111</v>
+      </c>
+      <c r="E114" t="s">
+        <v>176</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="37"/>
+        <v>"bbb"</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S114" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(111), null, null, "bbb", null, null, null, null);</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>112</v>
+      </c>
+      <c r="F115" t="s">
+        <v>177</v>
+      </c>
+      <c r="G115" t="s">
+        <v>178</v>
+      </c>
+      <c r="H115" t="s">
+        <v>177</v>
+      </c>
+      <c r="I115" t="s">
+        <v>178</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S115" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(112), null, null, null, "ccc", "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>113</v>
+      </c>
+      <c r="F116" t="s">
+        <v>177</v>
+      </c>
+      <c r="G116" t="s">
+        <v>178</v>
+      </c>
+      <c r="H116" t="s">
+        <v>177</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S116" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(113), null, null, null, "ccc", "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>114</v>
+      </c>
+      <c r="F117" t="s">
+        <v>177</v>
+      </c>
+      <c r="G117" t="s">
+        <v>178</v>
+      </c>
+      <c r="I117" t="s">
+        <v>178</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S117" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(114), null, null, null, "ccc", "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>115</v>
+      </c>
+      <c r="F118" t="s">
+        <v>177</v>
+      </c>
+      <c r="G118" t="s">
+        <v>178</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S118" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(115), null, null, null, "ccc", "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>116</v>
+      </c>
+      <c r="F119" t="s">
+        <v>177</v>
+      </c>
+      <c r="H119" t="s">
+        <v>177</v>
+      </c>
+      <c r="I119" t="s">
+        <v>178</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S119" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(116), null, null, null, "ccc", null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>117</v>
+      </c>
+      <c r="F120" t="s">
+        <v>177</v>
+      </c>
+      <c r="H120" t="s">
+        <v>177</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N120" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S120" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(117), null, null, null, "ccc", null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>118</v>
+      </c>
+      <c r="F121" t="s">
+        <v>177</v>
+      </c>
+      <c r="I121" t="s">
+        <v>178</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S121" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(118), null, null, null, "ccc", null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>119</v>
+      </c>
+      <c r="F122" t="s">
+        <v>177</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N122" t="str">
+        <f t="shared" si="38"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S122" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(119), null, null, null, "ccc", null, null, null);</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="G123" t="s">
+        <v>178</v>
+      </c>
+      <c r="H123" t="s">
+        <v>177</v>
+      </c>
+      <c r="I123" t="s">
+        <v>178</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O123" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S123" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(120), null, null, null, null, "ddd", "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="G124" t="s">
+        <v>178</v>
+      </c>
+      <c r="H124" t="s">
+        <v>177</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q124" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S124" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(121), null, null, null, null, "ddd", "ccc", null);</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>122</v>
+      </c>
+      <c r="G125" t="s">
+        <v>178</v>
+      </c>
+      <c r="I125" t="s">
+        <v>178</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O125" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P125" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S125" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(122), null, null, null, null, "ddd", null, "ddd");</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>123</v>
+      </c>
+      <c r="G126" t="s">
+        <v>178</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O126" t="str">
+        <f t="shared" si="39"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="P126" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q126" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S126" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(123), null, null, null, null, "ddd", null, null);</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>124</v>
+      </c>
+      <c r="H127" t="s">
+        <v>177</v>
+      </c>
+      <c r="I127" t="s">
+        <v>178</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P127" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q127" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S127" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(124), null, null, null, null, null, "ccc", "ddd");</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>125</v>
+      </c>
+      <c r="H128" t="s">
+        <v>177</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P128" t="str">
+        <f t="shared" si="40"/>
+        <v>"ccc"</v>
+      </c>
+      <c r="Q128" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S128" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(125), null, null, null, null, null, "ccc", null);</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>126</v>
+      </c>
+      <c r="I129" t="s">
+        <v>178</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O129" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P129" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q129" t="str">
+        <f t="shared" si="41"/>
+        <v>"ddd"</v>
+      </c>
+      <c r="S129" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(126), null, null, null, null, null, null, "ddd");</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>127</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="35"/>
+        <v>null</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="36"/>
+        <v>null</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="37"/>
+        <v>null</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="38"/>
+        <v>null</v>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="39"/>
+        <v>null</v>
+      </c>
+      <c r="P130" t="str">
+        <f t="shared" si="40"/>
+        <v>null</v>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" si="41"/>
+        <v>null</v>
+      </c>
+      <c r="S130" t="str">
+        <f t="shared" si="42"/>
+        <v>assertTestOf(testBeans.get(127), null, null, null, null, null, null, null);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
+++ b/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D298E98-CBB4-4A11-AB6E-6005C9C5DB75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C816B23-64EA-4C68-A48A-81B99FB44FCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="0" windowWidth="19200" windowHeight="8232" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8712" yWindow="0" windowWidth="19200" windowHeight="8232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -357,10 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>props#key?listToProp=key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ints[0]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,10 +383,6 @@
     <t>ints[6]</t>
   </si>
   <si>
-    <t>props#value?listToProp=value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>long1</t>
   </si>
   <si>
@@ -706,6 +698,12 @@
   <si>
     <t>testOf#~</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>props#key?toBean=key</t>
+  </si>
+  <si>
+    <t>props#value?toBean=value</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57882E8F-0D14-4C43-AC14-C5F870161CEA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1841,15 +1839,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -1905,7 +1903,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1913,7 +1911,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1921,7 +1919,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1929,7 +1927,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>100.1</v>
@@ -1937,7 +1935,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
@@ -1945,12 +1943,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>9999</v>
@@ -1983,18 +1981,18 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2002,7 +2000,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2010,7 +2008,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -2018,7 +2016,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>100.1</v>
@@ -2026,10 +2024,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2055,7 +2053,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2063,7 +2061,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2071,7 +2069,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -2079,7 +2077,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>100.1</v>
@@ -2087,15 +2085,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -2103,12 +2101,12 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>9999</v>
@@ -2142,18 +2140,18 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2161,7 +2159,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2169,7 +2167,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -2177,7 +2175,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>100.1</v>
@@ -2185,10 +2183,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2214,7 +2212,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2222,7 +2220,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2230,7 +2228,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -2238,7 +2236,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>100.1</v>
@@ -2246,15 +2244,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -2262,12 +2260,12 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>9999</v>
@@ -2300,18 +2298,18 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2319,7 +2317,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2327,7 +2325,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -2335,7 +2333,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>100.1</v>
@@ -2343,10 +2341,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2372,7 +2370,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2380,7 +2378,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2388,7 +2386,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -2396,7 +2394,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>100.1</v>
@@ -2404,15 +2402,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -2420,12 +2418,12 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18">
         <v>9999</v>
@@ -2458,18 +2456,18 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2477,7 +2475,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2485,7 +2483,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -2493,7 +2491,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>100.1</v>
@@ -2501,10 +2499,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2530,7 +2528,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2538,7 +2536,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2546,7 +2544,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -2554,7 +2552,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14">
         <v>100.1</v>
@@ -2562,15 +2560,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -2578,12 +2576,12 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18">
         <v>9999</v>
@@ -2616,18 +2614,18 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2635,7 +2633,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2643,23 +2641,23 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -2667,20 +2665,20 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2688,7 +2686,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2696,23 +2694,23 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
@@ -2720,15 +2718,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2759,26 +2757,26 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2786,15 +2784,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -2802,13 +2800,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2">
         <v>-1234</v>
@@ -2816,15 +2814,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2832,15 +2830,15 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
@@ -2848,13 +2846,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2">
         <v>-1234</v>
@@ -2871,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8249E309-217F-4620-B34D-3059B53B61C0}">
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J97" workbookViewId="0">
+    <sheetView topLeftCell="J97" workbookViewId="0">
       <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
@@ -2886,30 +2884,30 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" t="s">
-        <v>182</v>
-      </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2918,22 +2916,22 @@
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K3" t="str">
         <f>IF(C3&lt;&gt;"",""""&amp;C3&amp;"""","null")</f>
@@ -2976,19 +2974,19 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K17" si="1">IF(C4&lt;&gt;"",""""&amp;C4&amp;"""","null")</f>
@@ -3031,19 +3029,19 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
@@ -3086,16 +3084,16 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -3138,19 +3136,19 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -3193,16 +3191,16 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -3245,16 +3243,16 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -3297,13 +3295,13 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -3346,19 +3344,19 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -3401,16 +3399,16 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -3453,16 +3451,16 @@
         <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -3505,13 +3503,13 @@
         <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -3554,16 +3552,16 @@
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -3606,13 +3604,13 @@
         <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -3655,13 +3653,13 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -3704,10 +3702,10 @@
         <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18" si="3">IF(C18&lt;&gt;"",""""&amp;C18&amp;"""","null")</f>
@@ -3750,19 +3748,19 @@
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19:K34" si="11">IF(C19&lt;&gt;"",""""&amp;C19&amp;"""","null")</f>
@@ -3805,16 +3803,16 @@
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="11"/>
@@ -3857,16 +3855,16 @@
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="11"/>
@@ -3909,13 +3907,13 @@
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="11"/>
@@ -3958,16 +3956,16 @@
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="11"/>
@@ -4010,13 +4008,13 @@
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="11"/>
@@ -4059,13 +4057,13 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="11"/>
@@ -4108,10 +4106,10 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="11"/>
@@ -4154,16 +4152,16 @@
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="11"/>
@@ -4206,13 +4204,13 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="11"/>
@@ -4255,13 +4253,13 @@
         <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="11"/>
@@ -4304,10 +4302,10 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="11"/>
@@ -4350,13 +4348,13 @@
         <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="11"/>
@@ -4399,10 +4397,10 @@
         <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="11"/>
@@ -4445,10 +4443,10 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="11"/>
@@ -4491,7 +4489,7 @@
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="11"/>
@@ -4534,19 +4532,19 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" ref="K35:K50" si="19">IF(C35&lt;&gt;"",""""&amp;C35&amp;"""","null")</f>
@@ -4589,16 +4587,16 @@
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="19"/>
@@ -4641,16 +4639,16 @@
         <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="19"/>
@@ -4693,13 +4691,13 @@
         <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="19"/>
@@ -4742,16 +4740,16 @@
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="19"/>
@@ -4794,13 +4792,13 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="19"/>
@@ -4843,13 +4841,13 @@
         <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="19"/>
@@ -4892,10 +4890,10 @@
         <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="19"/>
@@ -4938,16 +4936,16 @@
         <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="19"/>
@@ -4990,13 +4988,13 @@
         <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="19"/>
@@ -5039,13 +5037,13 @@
         <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="19"/>
@@ -5088,10 +5086,10 @@
         <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="19"/>
@@ -5134,13 +5132,13 @@
         <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="19"/>
@@ -5183,10 +5181,10 @@
         <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="19"/>
@@ -5229,10 +5227,10 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="19"/>
@@ -5275,7 +5273,7 @@
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="19"/>
@@ -5318,16 +5316,16 @@
         <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" ref="K51:K66" si="27">IF(C51&lt;&gt;"",""""&amp;C51&amp;"""","null")</f>
@@ -5370,13 +5368,13 @@
         <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="27"/>
@@ -5419,13 +5417,13 @@
         <v>71</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="27"/>
@@ -5468,10 +5466,10 @@
         <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="27"/>
@@ -5514,13 +5512,13 @@
         <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="27"/>
@@ -5563,10 +5561,10 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="27"/>
@@ -5609,10 +5607,10 @@
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="27"/>
@@ -5655,7 +5653,7 @@
         <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="27"/>
@@ -5698,13 +5696,13 @@
         <v>71</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="27"/>
@@ -5747,10 +5745,10 @@
         <v>71</v>
       </c>
       <c r="G60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="27"/>
@@ -5793,10 +5791,10 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="27"/>
@@ -5839,7 +5837,7 @@
         <v>71</v>
       </c>
       <c r="G62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="27"/>
@@ -5882,10 +5880,10 @@
         <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="27"/>
@@ -5928,7 +5926,7 @@
         <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="27"/>
@@ -5971,7 +5969,7 @@
         <v>71</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="27"/>
@@ -6051,22 +6049,22 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67:K130" si="35">IF(C67&lt;&gt;"",""""&amp;C67&amp;"""","null")</f>
@@ -6106,19 +6104,19 @@
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="35"/>
@@ -6158,19 +6156,19 @@
         <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="35"/>
@@ -6210,16 +6208,16 @@
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="35"/>
@@ -6259,19 +6257,19 @@
         <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="35"/>
@@ -6311,16 +6309,16 @@
         <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="35"/>
@@ -6360,16 +6358,16 @@
         <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I73" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="35"/>
@@ -6409,13 +6407,13 @@
         <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="35"/>
@@ -6455,19 +6453,19 @@
         <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="35"/>
@@ -6507,16 +6505,16 @@
         <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="35"/>
@@ -6556,16 +6554,16 @@
         <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="35"/>
@@ -6605,13 +6603,13 @@
         <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="35"/>
@@ -6651,16 +6649,16 @@
         <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="35"/>
@@ -6700,13 +6698,13 @@
         <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="35"/>
@@ -6746,13 +6744,13 @@
         <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="35"/>
@@ -6792,10 +6790,10 @@
         <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="35"/>
@@ -6835,19 +6833,19 @@
         <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="35"/>
@@ -6887,16 +6885,16 @@
         <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="35"/>
@@ -6936,16 +6934,16 @@
         <v>82</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="35"/>
@@ -6985,13 +6983,13 @@
         <v>83</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="35"/>
@@ -7031,16 +7029,16 @@
         <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="35"/>
@@ -7080,13 +7078,13 @@
         <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="35"/>
@@ -7126,13 +7124,13 @@
         <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="35"/>
@@ -7172,10 +7170,10 @@
         <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="35"/>
@@ -7215,16 +7213,16 @@
         <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="35"/>
@@ -7264,13 +7262,13 @@
         <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="35"/>
@@ -7310,13 +7308,13 @@
         <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="35"/>
@@ -7356,10 +7354,10 @@
         <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="35"/>
@@ -7399,13 +7397,13 @@
         <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="35"/>
@@ -7445,10 +7443,10 @@
         <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="35"/>
@@ -7488,10 +7486,10 @@
         <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="35"/>
@@ -7531,7 +7529,7 @@
         <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="35"/>
@@ -7571,19 +7569,19 @@
         <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="35"/>
@@ -7623,16 +7621,16 @@
         <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="35"/>
@@ -7672,16 +7670,16 @@
         <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="35"/>
@@ -7721,13 +7719,13 @@
         <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="35"/>
@@ -7767,16 +7765,16 @@
         <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I103" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="35"/>
@@ -7816,13 +7814,13 @@
         <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="35"/>
@@ -7862,13 +7860,13 @@
         <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I105" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="35"/>
@@ -7908,10 +7906,10 @@
         <v>103</v>
       </c>
       <c r="E106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F106" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="35"/>
@@ -7951,16 +7949,16 @@
         <v>104</v>
       </c>
       <c r="E107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="35"/>
@@ -8000,13 +7998,13 @@
         <v>105</v>
       </c>
       <c r="E108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="35"/>
@@ -8046,13 +8044,13 @@
         <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" si="35"/>
@@ -8092,10 +8090,10 @@
         <v>107</v>
       </c>
       <c r="E110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" si="35"/>
@@ -8135,13 +8133,13 @@
         <v>108</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" si="35"/>
@@ -8181,10 +8179,10 @@
         <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H112" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" si="35"/>
@@ -8224,10 +8222,10 @@
         <v>110</v>
       </c>
       <c r="E113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="35"/>
@@ -8267,7 +8265,7 @@
         <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K114" t="str">
         <f t="shared" si="35"/>
@@ -8307,16 +8305,16 @@
         <v>112</v>
       </c>
       <c r="F115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="35"/>
@@ -8356,13 +8354,13 @@
         <v>113</v>
       </c>
       <c r="F116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K116" t="str">
         <f t="shared" si="35"/>
@@ -8402,13 +8400,13 @@
         <v>114</v>
       </c>
       <c r="F117" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K117" t="str">
         <f t="shared" si="35"/>
@@ -8448,10 +8446,10 @@
         <v>115</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G118" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" si="35"/>
@@ -8491,13 +8489,13 @@
         <v>116</v>
       </c>
       <c r="F119" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H119" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="35"/>
@@ -8537,10 +8535,10 @@
         <v>117</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H120" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" si="35"/>
@@ -8580,10 +8578,10 @@
         <v>118</v>
       </c>
       <c r="F121" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="35"/>
@@ -8623,7 +8621,7 @@
         <v>119</v>
       </c>
       <c r="F122" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="35"/>
@@ -8663,13 +8661,13 @@
         <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H123" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="35"/>
@@ -8709,10 +8707,10 @@
         <v>121</v>
       </c>
       <c r="G124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H124" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K124" t="str">
         <f t="shared" si="35"/>
@@ -8752,10 +8750,10 @@
         <v>122</v>
       </c>
       <c r="G125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="35"/>
@@ -8795,7 +8793,7 @@
         <v>123</v>
       </c>
       <c r="G126" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K126" t="str">
         <f t="shared" si="35"/>
@@ -8835,10 +8833,10 @@
         <v>124</v>
       </c>
       <c r="H127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K127" t="str">
         <f t="shared" si="35"/>
@@ -8878,7 +8876,7 @@
         <v>125</v>
       </c>
       <c r="H128" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K128" t="str">
         <f t="shared" si="35"/>
@@ -8918,7 +8916,7 @@
         <v>126</v>
       </c>
       <c r="I129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K129" t="str">
         <f t="shared" si="35"/>

--- a/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
+++ b/src/test/resources/org/xlbean/TestBook_XlBean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C816B23-64EA-4C68-A48A-81B99FB44FCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E71C9-83CA-47E2-A406-D31D1EB7E9CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8712" yWindow="0" windowWidth="19200" windowHeight="8232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="1044" windowWidth="21948" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -700,10 +700,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>props#key?toBean=key</t>
-  </si>
-  <si>
-    <t>props#value?toBean=value</t>
+    <t>props#key?toMap=key</t>
+  </si>
+  <si>
+    <t>props#value?toMap=value</t>
   </si>
 </sst>
 </file>
